--- a/assets/form/TOUPZ.xlsx
+++ b/assets/form/TOUPZ.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\flutterDartProjects\ehz1\assets\form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F436256-5F91-4828-A1AE-41F18F8DF14E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFAA315-3699-4BC9-9328-84A93A32119E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{21F93581-3072-4921-A15F-763FA22ADC48}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{21F93581-3072-4921-A15F-763FA22ADC48}"/>
   </bookViews>
   <sheets>
-    <sheet name="TOUKZ" sheetId="1" r:id="rId1"/>
+    <sheet name="TOUPZ" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TOUKZ!$A$1:$F$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TOUPZ!$A$1:$F$20</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -268,11 +268,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -422,72 +430,72 @@
   </cellStyleXfs>
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -805,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71296316-4C04-4862-968C-7E51A3A0E192}">
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,538 +832,538 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-    </row>
-    <row r="3" spans="1:14" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+    </row>
+    <row r="3" spans="1:14" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="26" t="s">
+      <c r="F3" s="13"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="12" t="str">
+      <c r="L3" s="8" t="str">
         <f>"this."&amp;J3&amp;","</f>
         <v>this.id,</v>
       </c>
-      <c r="N3" s="12" t="str">
+      <c r="N3" s="8" t="str">
         <f>"String get "&amp;J3&amp;" =&gt; _"&amp;J3&amp;";"</f>
         <v>String get id =&gt; _id;</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:14" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="12" t="s">
+      <c r="F4" s="7"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="12" t="str">
+      <c r="L4" s="8" t="str">
         <f t="shared" ref="L4:L36" si="0">"this."&amp;J4&amp;","</f>
         <v>this.todoDate,</v>
       </c>
-      <c r="N4" s="12" t="str">
+      <c r="N4" s="8" t="str">
         <f t="shared" ref="N4:N36" si="1">"String get "&amp;J4&amp;" =&gt; _"&amp;J4&amp;";"</f>
         <v>String get todoDate =&gt; _todoDate;</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:14" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="10" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="12" t="s">
+      <c r="F5" s="7"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="12" t="str">
+      <c r="L5" s="8" t="str">
         <f t="shared" si="0"/>
         <v>this.title,</v>
       </c>
-      <c r="N5" s="12" t="str">
+      <c r="N5" s="8" t="str">
         <f t="shared" si="1"/>
         <v>String get title =&gt; _title;</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:14" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="12" t="s">
+      <c r="F6" s="7"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="12" t="str">
+      <c r="L6" s="8" t="str">
         <f t="shared" si="0"/>
         <v>this.kontrol,</v>
       </c>
-      <c r="N6" s="12" t="str">
+      <c r="N6" s="8" t="str">
         <f t="shared" si="1"/>
         <v>String get kontrol =&gt; _kontrol;</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:14" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="7"/>
+      <c r="E7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="12" t="s">
+      <c r="F7" s="7"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="12" t="str">
+      <c r="L7" s="8" t="str">
         <f t="shared" si="0"/>
         <v>this.kolvoprotvgruppe,</v>
       </c>
-      <c r="N7" s="12" t="str">
+      <c r="N7" s="8" t="str">
         <f t="shared" si="1"/>
         <v>String get kolvoprotvgruppe =&gt; _kolvoprotvgruppe;</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:14" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="7"/>
+      <c r="E8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="12" t="s">
+      <c r="F8" s="7"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="12" t="str">
+      <c r="L8" s="8" t="str">
         <f t="shared" si="0"/>
         <v>this.date,</v>
       </c>
-      <c r="N8" s="12" t="str">
+      <c r="N8" s="8" t="str">
         <f t="shared" si="1"/>
         <v>String get date =&gt; _date;</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:14" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="10" t="s">
+      <c r="D9" s="7"/>
+      <c r="E9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="12" t="s">
+      <c r="F9" s="7"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="12" t="str">
+      <c r="L9" s="8" t="str">
         <f t="shared" si="0"/>
         <v>this.fotoupz,</v>
       </c>
-      <c r="N9" s="12" t="str">
+      <c r="N9" s="8" t="str">
         <f t="shared" si="1"/>
         <v>String get fotoupz =&gt; _fotoupz;</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:14" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="10" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" s="12" t="s">
+      <c r="F10" s="7"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="12" t="str">
+      <c r="L10" s="8" t="str">
         <f t="shared" si="0"/>
         <v>this.zamechupz,</v>
       </c>
-      <c r="N10" s="12" t="str">
+      <c r="N10" s="8" t="str">
         <f t="shared" si="1"/>
         <v>String get zamechupz =&gt; _zamechupz;</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:14" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="10" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="10" t="s">
+      <c r="D11" s="7"/>
+      <c r="E11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" s="12" t="s">
+      <c r="F11" s="7"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="L11" s="12" t="str">
+      <c r="L11" s="8" t="str">
         <f t="shared" si="0"/>
         <v>this.sostojanieupz,</v>
       </c>
-      <c r="N11" s="12" t="str">
+      <c r="N11" s="8" t="str">
         <f t="shared" si="1"/>
         <v>String get sostojanieupz =&gt; _sostojanieupz;</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+    <row r="12" spans="1:14" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="10" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="10" t="s">
+      <c r="D12" s="7"/>
+      <c r="E12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-    </row>
-    <row r="13" spans="1:14" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="F12" s="7"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+    </row>
+    <row r="13" spans="1:14" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="10" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="10" t="s">
+      <c r="D13" s="7"/>
+      <c r="E13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" s="12" t="s">
+      <c r="F13" s="7"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L13" s="12" t="str">
+      <c r="L13" s="8" t="str">
         <f t="shared" si="0"/>
         <v>this.peremsost,</v>
       </c>
-      <c r="N13" s="12" t="str">
+      <c r="N13" s="8" t="str">
         <f t="shared" si="1"/>
         <v>String get peremsost =&gt; _peremsost;</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+    <row r="14" spans="1:14" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="10" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="10" t="s">
+      <c r="D14" s="7"/>
+      <c r="E14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="H14" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="J14" s="12" t="s">
+      <c r="F14" s="7"/>
+      <c r="H14" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="12" t="str">
+      <c r="L14" s="8" t="str">
         <f t="shared" si="0"/>
         <v>this.potencialvklsumm,</v>
       </c>
-      <c r="N14" s="12" t="str">
+      <c r="N14" s="8" t="str">
         <f t="shared" si="1"/>
         <v>String get potencialvklsumm =&gt; _potencialvklsumm;</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="J15" s="20" t="s">
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="L15" s="12" t="str">
+      <c r="L15" s="8" t="str">
         <f t="shared" si="0"/>
         <v>this.potencialvklpolyar,</v>
       </c>
-      <c r="N15" s="12" t="str">
+      <c r="N15" s="8" t="str">
         <f t="shared" si="1"/>
         <v>String get potencialvklpolyar =&gt; _potencialvklpolyar;</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J16" s="21" t="s">
+      <c r="A16" s="26"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="L16" s="12" t="str">
+      <c r="L16" s="8" t="str">
         <f t="shared" si="0"/>
         <v>this.potencialprot,</v>
       </c>
-      <c r="N16" s="12" t="str">
+      <c r="N16" s="8" t="str">
         <f t="shared" si="1"/>
         <v>String get potencialprot =&gt; _potencialprot;</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J17" s="21" t="s">
+      <c r="A17" s="20"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="L17" s="12" t="str">
+      <c r="L17" s="8" t="str">
         <f t="shared" si="0"/>
         <v>this.edsupz,</v>
       </c>
-      <c r="N17" s="12" t="str">
+      <c r="N17" s="8" t="str">
         <f t="shared" si="1"/>
         <v>String get edsupz =&gt; _edsupz;</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" s="21" t="s">
+      <c r="A18" s="20"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="L18" s="12" t="str">
+      <c r="L18" s="8" t="str">
         <f t="shared" si="0"/>
         <v>this.tokupz,</v>
       </c>
-      <c r="N18" s="12" t="str">
+      <c r="N18" s="8" t="str">
         <f t="shared" si="1"/>
         <v>String get tokupz =&gt; _tokupz;</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="7"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J19" s="6" t="s">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="3"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L19" s="12" t="str">
+      <c r="L19" s="8" t="str">
         <f t="shared" si="0"/>
         <v>this.soprrast,</v>
       </c>
-      <c r="N19" s="12" t="str">
+      <c r="N19" s="8" t="str">
         <f t="shared" si="1"/>
         <v>String get soprrast =&gt; _soprrast;</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H20" s="26" t="s">
+      <c r="H20" s="18" t="s">
         <v>20</v>
       </c>
       <c r="I20" t="s">
@@ -1364,22 +1372,22 @@
       <c r="J20" t="s">
         <v>37</v>
       </c>
-      <c r="L20" s="12" t="str">
+      <c r="L20" s="8" t="str">
         <f t="shared" si="0"/>
         <v>this.udsoprgrunta,</v>
       </c>
-      <c r="N20" s="12" t="str">
+      <c r="N20" s="8" t="str">
         <f t="shared" si="1"/>
         <v>String get udsoprgrunta =&gt; _udsoprgrunta;</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H21" s="27"/>
-      <c r="L21" s="12"/>
-      <c r="N21" s="12"/>
+      <c r="H21" s="19"/>
+      <c r="L21" s="8"/>
+      <c r="N21" s="8"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H22" s="26" t="s">
+      <c r="H22" s="18" t="s">
         <v>20</v>
       </c>
       <c r="I22" t="s">
@@ -1388,17 +1396,17 @@
       <c r="J22" t="s">
         <v>38</v>
       </c>
-      <c r="L22" s="12" t="str">
+      <c r="L22" s="8" t="str">
         <f t="shared" si="0"/>
         <v>this.potencialvklsumm1,</v>
       </c>
-      <c r="N22" s="12" t="str">
+      <c r="N22" s="8" t="str">
         <f t="shared" si="1"/>
         <v>String get potencialvklsumm1 =&gt; _potencialvklsumm1;</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H23" s="26" t="s">
+      <c r="H23" s="18" t="s">
         <v>20</v>
       </c>
       <c r="I23" t="s">
@@ -1407,17 +1415,17 @@
       <c r="J23" t="s">
         <v>39</v>
       </c>
-      <c r="L23" s="12" t="str">
+      <c r="L23" s="8" t="str">
         <f t="shared" si="0"/>
         <v>this.potencialvklpolyar1,</v>
       </c>
-      <c r="N23" s="12" t="str">
+      <c r="N23" s="8" t="str">
         <f t="shared" si="1"/>
         <v>String get potencialvklpolyar1 =&gt; _potencialvklpolyar1;</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H24" s="26" t="s">
+      <c r="H24" s="18" t="s">
         <v>20</v>
       </c>
       <c r="I24" t="s">
@@ -1426,17 +1434,17 @@
       <c r="J24" t="s">
         <v>40</v>
       </c>
-      <c r="L24" s="12" t="str">
+      <c r="L24" s="8" t="str">
         <f t="shared" si="0"/>
         <v>this.potencialprot1,</v>
       </c>
-      <c r="N24" s="12" t="str">
+      <c r="N24" s="8" t="str">
         <f t="shared" si="1"/>
         <v>String get potencialprot1 =&gt; _potencialprot1;</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H25" s="26" t="s">
+      <c r="H25" s="18" t="s">
         <v>20</v>
       </c>
       <c r="I25" t="s">
@@ -1445,17 +1453,17 @@
       <c r="J25" t="s">
         <v>41</v>
       </c>
-      <c r="L25" s="12" t="str">
+      <c r="L25" s="8" t="str">
         <f t="shared" si="0"/>
         <v>this.edsupz1,</v>
       </c>
-      <c r="N25" s="12" t="str">
+      <c r="N25" s="8" t="str">
         <f t="shared" si="1"/>
         <v>String get edsupz1 =&gt; _edsupz1;</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H26" s="26" t="s">
+      <c r="H26" s="18" t="s">
         <v>20</v>
       </c>
       <c r="I26" t="s">
@@ -1464,17 +1472,17 @@
       <c r="J26" t="s">
         <v>42</v>
       </c>
-      <c r="L26" s="12" t="str">
+      <c r="L26" s="8" t="str">
         <f t="shared" si="0"/>
         <v>this.tokupz1,</v>
       </c>
-      <c r="N26" s="12" t="str">
+      <c r="N26" s="8" t="str">
         <f t="shared" si="1"/>
         <v>String get tokupz1 =&gt; _tokupz1;</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H27" s="26" t="s">
+      <c r="H27" s="18" t="s">
         <v>20</v>
       </c>
       <c r="I27" t="s">
@@ -1483,17 +1491,17 @@
       <c r="J27" t="s">
         <v>43</v>
       </c>
-      <c r="L27" s="12" t="str">
+      <c r="L27" s="8" t="str">
         <f t="shared" si="0"/>
         <v>this.soprrast1,</v>
       </c>
-      <c r="N27" s="12" t="str">
+      <c r="N27" s="8" t="str">
         <f t="shared" si="1"/>
         <v>String get soprrast1 =&gt; _soprrast1;</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H28" s="26" t="s">
+      <c r="H28" s="18" t="s">
         <v>20</v>
       </c>
       <c r="I28" t="s">
@@ -1502,22 +1510,22 @@
       <c r="J28" t="s">
         <v>44</v>
       </c>
-      <c r="L28" s="12" t="str">
+      <c r="L28" s="8" t="str">
         <f t="shared" si="0"/>
         <v>this.udsoprgrunta1,</v>
       </c>
-      <c r="N28" s="12" t="str">
+      <c r="N28" s="8" t="str">
         <f t="shared" si="1"/>
         <v>String get udsoprgrunta1 =&gt; _udsoprgrunta1;</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H29" s="27"/>
-      <c r="L29" s="12"/>
-      <c r="N29" s="12"/>
+      <c r="H29" s="19"/>
+      <c r="L29" s="8"/>
+      <c r="N29" s="8"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H30" s="26" t="s">
+      <c r="H30" s="18" t="s">
         <v>20</v>
       </c>
       <c r="I30" t="s">
@@ -1526,17 +1534,17 @@
       <c r="J30" t="s">
         <v>45</v>
       </c>
-      <c r="L30" s="12" t="str">
+      <c r="L30" s="8" t="str">
         <f t="shared" si="0"/>
         <v>this.potencialvklsumm2,</v>
       </c>
-      <c r="N30" s="12" t="str">
+      <c r="N30" s="8" t="str">
         <f t="shared" si="1"/>
         <v>String get potencialvklsumm2 =&gt; _potencialvklsumm2;</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H31" s="26" t="s">
+      <c r="H31" s="18" t="s">
         <v>20</v>
       </c>
       <c r="I31" t="s">
@@ -1545,17 +1553,17 @@
       <c r="J31" t="s">
         <v>46</v>
       </c>
-      <c r="L31" s="12" t="str">
+      <c r="L31" s="8" t="str">
         <f t="shared" si="0"/>
         <v>this.potencialvklpolyar2,</v>
       </c>
-      <c r="N31" s="12" t="str">
+      <c r="N31" s="8" t="str">
         <f t="shared" si="1"/>
         <v>String get potencialvklpolyar2 =&gt; _potencialvklpolyar2;</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H32" s="26" t="s">
+      <c r="H32" s="18" t="s">
         <v>20</v>
       </c>
       <c r="I32" t="s">
@@ -1564,17 +1572,17 @@
       <c r="J32" t="s">
         <v>47</v>
       </c>
-      <c r="L32" s="12" t="str">
+      <c r="L32" s="8" t="str">
         <f t="shared" si="0"/>
         <v>this.potencialprot2,</v>
       </c>
-      <c r="N32" s="12" t="str">
+      <c r="N32" s="8" t="str">
         <f t="shared" si="1"/>
         <v>String get potencialprot2 =&gt; _potencialprot2;</v>
       </c>
     </row>
     <row r="33" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H33" s="26" t="s">
+      <c r="H33" s="18" t="s">
         <v>20</v>
       </c>
       <c r="I33" t="s">
@@ -1583,17 +1591,17 @@
       <c r="J33" t="s">
         <v>48</v>
       </c>
-      <c r="L33" s="12" t="str">
+      <c r="L33" s="8" t="str">
         <f t="shared" si="0"/>
         <v>this.edsupz2,</v>
       </c>
-      <c r="N33" s="12" t="str">
+      <c r="N33" s="8" t="str">
         <f t="shared" si="1"/>
         <v>String get edsupz2 =&gt; _edsupz2;</v>
       </c>
     </row>
     <row r="34" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H34" s="26" t="s">
+      <c r="H34" s="18" t="s">
         <v>20</v>
       </c>
       <c r="I34" t="s">
@@ -1602,17 +1610,17 @@
       <c r="J34" t="s">
         <v>49</v>
       </c>
-      <c r="L34" s="12" t="str">
+      <c r="L34" s="8" t="str">
         <f t="shared" si="0"/>
         <v>this.tokupz2,</v>
       </c>
-      <c r="N34" s="12" t="str">
+      <c r="N34" s="8" t="str">
         <f t="shared" si="1"/>
         <v>String get tokupz2 =&gt; _tokupz2;</v>
       </c>
     </row>
     <row r="35" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H35" s="26" t="s">
+      <c r="H35" s="18" t="s">
         <v>20</v>
       </c>
       <c r="I35" t="s">
@@ -1621,17 +1629,17 @@
       <c r="J35" t="s">
         <v>50</v>
       </c>
-      <c r="L35" s="12" t="str">
+      <c r="L35" s="8" t="str">
         <f t="shared" si="0"/>
         <v>this.soprrast2,</v>
       </c>
-      <c r="N35" s="12" t="str">
+      <c r="N35" s="8" t="str">
         <f t="shared" si="1"/>
         <v>String get soprrast2 =&gt; _soprrast2;</v>
       </c>
     </row>
     <row r="36" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H36" s="26" t="s">
+      <c r="H36" s="18" t="s">
         <v>20</v>
       </c>
       <c r="I36" t="s">
@@ -1640,11 +1648,11 @@
       <c r="J36" t="s">
         <v>51</v>
       </c>
-      <c r="L36" s="12" t="str">
+      <c r="L36" s="8" t="str">
         <f t="shared" si="0"/>
         <v>this.udsoprgrunta2,</v>
       </c>
-      <c r="N36" s="12" t="str">
+      <c r="N36" s="8" t="str">
         <f t="shared" si="1"/>
         <v>String get udsoprgrunta2 =&gt; _udsoprgrunta2;</v>
       </c>
@@ -1658,7 +1666,7 @@
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="A17:F17"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="55" orientation="landscape" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
